--- a/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
+++ b/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Addarticle" sheetId="1" r:id="rId1"/>
-    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId2"/>
-    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId3"/>
-    <sheet name="Addroom" sheetId="6" r:id="rId4"/>
-    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId5"/>
-    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId6"/>
-    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId7"/>
-    <sheet name="AccountGroups" sheetId="8" r:id="rId8"/>
-    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId9"/>
-    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId10"/>
-    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId11"/>
-    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId12"/>
-    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId13"/>
-    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId14"/>
+    <sheet name="Headoffice" sheetId="19" r:id="rId2"/>
+    <sheet name="Global" sheetId="20" r:id="rId3"/>
+    <sheet name="Subsidiary" sheetId="21" r:id="rId4"/>
+    <sheet name="ProductType" sheetId="18" r:id="rId5"/>
+    <sheet name="Designation" sheetId="17" r:id="rId6"/>
+    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId7"/>
+    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId8"/>
+    <sheet name="Addroom" sheetId="6" r:id="rId9"/>
+    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId10"/>
+    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId11"/>
+    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId12"/>
+    <sheet name="AccountGroups" sheetId="8" r:id="rId13"/>
+    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId14"/>
+    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId15"/>
+    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId16"/>
+    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId17"/>
+    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId18"/>
+    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId19"/>
+    <sheet name="AddEmployeeDetails" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="384">
   <si>
     <t>Article</t>
   </si>
@@ -1059,13 +1065,133 @@
   </si>
   <si>
     <t>Dining Room</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Domestic Moving</t>
+  </si>
+  <si>
+    <t>Door To Door Export</t>
+  </si>
+  <si>
+    <t>Door To Door Import</t>
+  </si>
+  <si>
+    <t>Door To Port Export</t>
+  </si>
+  <si>
+    <t>Local Moving</t>
+  </si>
+  <si>
+    <t>Port To Door Import</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relo Service </t>
+  </si>
+  <si>
+    <t>Packing Service</t>
+  </si>
+  <si>
+    <t>Freight Forwarding</t>
+  </si>
+  <si>
+    <t>Interstate</t>
+  </si>
+  <si>
+    <t>Intrastate</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Customs</t>
+  </si>
+  <si>
+    <t>Branch_Code</t>
+  </si>
+  <si>
+    <t>Branch_Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>emailpassword</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>ertyy</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>hjfs@hkf.dfg</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>12vg</t>
+  </si>
+  <si>
+    <t>empid</t>
+  </si>
+  <si>
+    <t>empname</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>pswd</t>
+  </si>
+  <si>
+    <t>3sad</t>
+  </si>
+  <si>
+    <t>ddsf@dsf.sdf</t>
+  </si>
+  <si>
+    <t>emol</t>
+  </si>
+  <si>
+    <t>425fg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,6 +1223,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1163,11 +1297,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,8 +1319,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1194,6 +1331,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1242,7 +1382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,7 +1417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1488,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,1366 +2016,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU2"/>
-  <sheetViews>
-    <sheetView topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BE23" sqref="BE23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:73" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:73" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -3280,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -3355,7 +2135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3430,7 +2210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3493,7 +2273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3519,4 +2299,1813 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B7:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2">
+        <v>679876544</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2">
+        <v>357</v>
+      </c>
+      <c r="I2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2">
+        <v>1122</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>212</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="9">
+        <v>679876544</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="9">
+        <v>357</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>311</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="9">
+        <v>679876544</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" s="9">
+        <v>357</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BU2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BE23" sqref="BE23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
+++ b/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Addarticle" sheetId="1" r:id="rId1"/>
-    <sheet name="Headoffice" sheetId="19" r:id="rId2"/>
-    <sheet name="Global" sheetId="20" r:id="rId3"/>
-    <sheet name="Subsidiary" sheetId="21" r:id="rId4"/>
-    <sheet name="ProductType" sheetId="18" r:id="rId5"/>
-    <sheet name="Designation" sheetId="17" r:id="rId6"/>
-    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId7"/>
-    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId8"/>
-    <sheet name="Addroom" sheetId="6" r:id="rId9"/>
-    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId10"/>
-    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId11"/>
-    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId12"/>
-    <sheet name="AccountGroups" sheetId="8" r:id="rId13"/>
-    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId14"/>
-    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId15"/>
-    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId16"/>
-    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId17"/>
-    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId18"/>
-    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId19"/>
-    <sheet name="AddEmployeeDetails" sheetId="22" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId2"/>
+    <sheet name="Headoffice" sheetId="19" r:id="rId3"/>
+    <sheet name="Global" sheetId="20" r:id="rId4"/>
+    <sheet name="Subsidiary" sheetId="21" r:id="rId5"/>
+    <sheet name="ProductType" sheetId="18" r:id="rId6"/>
+    <sheet name="Designation" sheetId="17" r:id="rId7"/>
+    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId8"/>
+    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId9"/>
+    <sheet name="Addroom" sheetId="6" r:id="rId10"/>
+    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId11"/>
+    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId12"/>
+    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId13"/>
+    <sheet name="AccountGroups" sheetId="8" r:id="rId14"/>
+    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId15"/>
+    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId16"/>
+    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId17"/>
+    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId18"/>
+    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId19"/>
+    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId20"/>
+    <sheet name="AddEmployeeDetails" sheetId="22" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="359">
   <si>
     <t>Article</t>
   </si>
@@ -41,21 +42,6 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>Foot stool</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>Quotation</t>
   </si>
   <si>
@@ -602,186 +588,6 @@
     <t>Living Room</t>
   </si>
   <si>
-    <t>DIM-QUOTE-</t>
-  </si>
-  <si>
-    <t>DIM-INV-</t>
-  </si>
-  <si>
-    <t>DIM-PO-</t>
-  </si>
-  <si>
-    <t>DIM-PR-</t>
-  </si>
-  <si>
-    <t>DIM-WH-</t>
-  </si>
-  <si>
-    <t>DIM-RR-</t>
-  </si>
-  <si>
-    <t>DIM-GR-</t>
-  </si>
-  <si>
-    <t>DIM-GRE-</t>
-  </si>
-  <si>
-    <t>DIM-CA-</t>
-  </si>
-  <si>
-    <t>DIM-ML-</t>
-  </si>
-  <si>
-    <t>DIM-CE-</t>
-  </si>
-  <si>
-    <t>DIM-CON-</t>
-  </si>
-  <si>
-    <t>DIM-JOB-</t>
-  </si>
-  <si>
-    <t>DIM-SR-</t>
-  </si>
-  <si>
-    <t>DIM-VINV-</t>
-  </si>
-  <si>
-    <t>DIM-SGR-</t>
-  </si>
-  <si>
-    <t>DIM-SGI-</t>
-  </si>
-  <si>
-    <t>DIM-FD-</t>
-  </si>
-  <si>
-    <t>DIM-ASR-</t>
-  </si>
-  <si>
-    <t>DIM-DN-</t>
-  </si>
-  <si>
-    <t>DIM-SH-</t>
-  </si>
-  <si>
-    <t>DIM-SUR-</t>
-  </si>
-  <si>
-    <t>DIM-COS-</t>
-  </si>
-  <si>
-    <t>DIM-CLAIM-</t>
-  </si>
-  <si>
-    <t>DIM-RV-</t>
-  </si>
-  <si>
-    <t>DIM-CO-</t>
-  </si>
-  <si>
-    <t>DIM-PRO-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIM-LE- </t>
-  </si>
-  <si>
-    <t>DIM-PV-</t>
-  </si>
-  <si>
-    <t>DIM-CF-</t>
-  </si>
-  <si>
-    <t>DIM-SP-</t>
-  </si>
-  <si>
-    <t>DIM-ENQ-</t>
-  </si>
-  <si>
-    <t>DIM-DB-</t>
-  </si>
-  <si>
-    <t>DIM-SUBGL-</t>
-  </si>
-  <si>
-    <t>DIM-JV-</t>
-  </si>
-  <si>
-    <t>DIM-PB-</t>
-  </si>
-  <si>
-    <t>DIM-AE-</t>
-  </si>
-  <si>
-    <t>DIM-INS-</t>
-  </si>
-  <si>
-    <t>DIM-LABEL-</t>
-  </si>
-  <si>
-    <t>DIM-JE-</t>
-  </si>
-  <si>
-    <t>DIM-EL-</t>
-  </si>
-  <si>
-    <t>DIM-OB-</t>
-  </si>
-  <si>
-    <t>DIM-AS-</t>
-  </si>
-  <si>
-    <t>DIM-SV-</t>
-  </si>
-  <si>
-    <t>DIM-RVB-</t>
-  </si>
-  <si>
-    <t>DIM-PVB-</t>
-  </si>
-  <si>
-    <t>DIM-CC-</t>
-  </si>
-  <si>
-    <t>DIM-CB-</t>
-  </si>
-  <si>
-    <t>DIM-GR-CON-</t>
-  </si>
-  <si>
-    <t>DIM-GRT-CON-</t>
-  </si>
-  <si>
-    <t>DIM-VC-AS-</t>
-  </si>
-  <si>
-    <t>DIM-VC-SV-</t>
-  </si>
-  <si>
-    <t>DIM-VC-CON-</t>
-  </si>
-  <si>
-    <t>DIM-CHQ-</t>
-  </si>
-  <si>
-    <t>DIM-VCN-</t>
-  </si>
-  <si>
-    <t>DIM-VDN-</t>
-  </si>
-  <si>
-    <t>DIM-GL-</t>
-  </si>
-  <si>
-    <t>DIM-RV-DID-</t>
-  </si>
-  <si>
-    <t>DIM-PV-DID-</t>
-  </si>
-  <si>
-    <t>DIM-JV-DID-</t>
-  </si>
-  <si>
     <t>FixedAsset</t>
   </si>
   <si>
@@ -830,198 +636,6 @@
     <t xml:space="preserve">yuii   io </t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>Bed with Mattress queen</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>Wooden Roof Beams</t>
-  </si>
-  <si>
-    <t>crockeries, Glasswares</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>wine rack</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>glass cabinet</t>
-  </si>
-  <si>
-    <t>pictures</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>serving trolley</t>
-  </si>
-  <si>
-    <t>Gym items</t>
-  </si>
-  <si>
-    <t>Tv 45 inches</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>Juicer, Toaster, Fryer</t>
-  </si>
-  <si>
-    <t>2 door glass cabinet</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>Pictures &amp; frames</t>
-  </si>
-  <si>
-    <t>recliner sofa</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>Tv 65 inches</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>Glass cabinet with Contents</t>
-  </si>
-  <si>
-    <t>Wheel Chair</t>
-  </si>
-  <si>
-    <t>file Cabinet with contents</t>
-  </si>
-  <si>
-    <t>office desk 2 &amp; 5 chairs</t>
-  </si>
-  <si>
-    <t>Apple Computer with 3 printer</t>
-  </si>
-  <si>
-    <t>Sewing Machine</t>
-  </si>
-  <si>
-    <t>wine Coller</t>
-  </si>
-  <si>
-    <t>key board &amp; gaming</t>
-  </si>
-  <si>
-    <t>Tv 42 inches</t>
-  </si>
-  <si>
-    <t>soundbar&amp; music system</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>bean bags</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>Trunk with linens</t>
-  </si>
-  <si>
-    <t>music systems</t>
-  </si>
-  <si>
-    <t>Cylinders</t>
-  </si>
-  <si>
-    <t>Chair folding 4</t>
-  </si>
-  <si>
-    <t>ladder, tool box</t>
-  </si>
-  <si>
-    <t>Shelf</t>
-  </si>
-  <si>
-    <t>music systems with Speakers</t>
-  </si>
-  <si>
-    <t>pedestal-fan big</t>
-  </si>
-  <si>
-    <t>Toiletries</t>
-  </si>
-  <si>
-    <t>Juicer, kettle</t>
-  </si>
-  <si>
-    <t>beddings &amp; Linens</t>
-  </si>
-  <si>
-    <t>Juicer, Toaster, kettle</t>
-  </si>
-  <si>
-    <t>Dining table with 1 Bench</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>Personal &amp; Miscellaneous</t>
-  </si>
-  <si>
-    <t>Book shelf with books &amp; CD'S</t>
-  </si>
-  <si>
-    <t>fountain Stone ( Heavy)</t>
-  </si>
-  <si>
-    <t>ladder</t>
-  </si>
-  <si>
-    <t>Juicer, Expresso, kettle</t>
-  </si>
-  <si>
-    <t>Air purifier</t>
-  </si>
-  <si>
-    <t>wardrobe sliding -3 door</t>
-  </si>
-  <si>
-    <t>Bedroom 1</t>
-  </si>
-  <si>
-    <t>Bedroom 2</t>
-  </si>
-  <si>
     <t>Bedroom 3</t>
   </si>
   <si>
@@ -1185,6 +799,318 @@
   </si>
   <si>
     <t>425fg</t>
+  </si>
+  <si>
+    <t>MH-QUOTE-</t>
+  </si>
+  <si>
+    <t>MH-INV-</t>
+  </si>
+  <si>
+    <t>MH-PO-</t>
+  </si>
+  <si>
+    <t>MH-PR-</t>
+  </si>
+  <si>
+    <t>MH-WH-</t>
+  </si>
+  <si>
+    <t>MH-RR-</t>
+  </si>
+  <si>
+    <t>MH-GR-</t>
+  </si>
+  <si>
+    <t>MH-GRE-</t>
+  </si>
+  <si>
+    <t>MH-CA-</t>
+  </si>
+  <si>
+    <t>MH-ML-</t>
+  </si>
+  <si>
+    <t>MH-CE-</t>
+  </si>
+  <si>
+    <t>MH-CON-</t>
+  </si>
+  <si>
+    <t>MH-JOB-</t>
+  </si>
+  <si>
+    <t>MH-SR-</t>
+  </si>
+  <si>
+    <t>MH-VINV-</t>
+  </si>
+  <si>
+    <t>MH-SGR-</t>
+  </si>
+  <si>
+    <t>MH-SGI-</t>
+  </si>
+  <si>
+    <t>MH-FD-</t>
+  </si>
+  <si>
+    <t>MH-ASR-</t>
+  </si>
+  <si>
+    <t>MH-DN-</t>
+  </si>
+  <si>
+    <t>MH-SH-</t>
+  </si>
+  <si>
+    <t>MH-SUR-</t>
+  </si>
+  <si>
+    <t>MH-COS-</t>
+  </si>
+  <si>
+    <t>MH-CLAIM-</t>
+  </si>
+  <si>
+    <t>MH-RV-</t>
+  </si>
+  <si>
+    <t>MH-CO-</t>
+  </si>
+  <si>
+    <t>MH-PRO-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MH-LE- </t>
+  </si>
+  <si>
+    <t>MH-PV-</t>
+  </si>
+  <si>
+    <t>MH-CF-</t>
+  </si>
+  <si>
+    <t>MH-SP-</t>
+  </si>
+  <si>
+    <t>MH-ENQ-</t>
+  </si>
+  <si>
+    <t>MH-DB-</t>
+  </si>
+  <si>
+    <t>MH-GL-</t>
+  </si>
+  <si>
+    <t>MH-SUBGL-</t>
+  </si>
+  <si>
+    <t>MH-RV-DID-</t>
+  </si>
+  <si>
+    <t>MH-PV-DID-</t>
+  </si>
+  <si>
+    <t>MH-JV-DID-</t>
+  </si>
+  <si>
+    <t>MH-JV-</t>
+  </si>
+  <si>
+    <t>MH-PB-</t>
+  </si>
+  <si>
+    <t>MH-AE-</t>
+  </si>
+  <si>
+    <t>MH-INS-</t>
+  </si>
+  <si>
+    <t>MH-LABEL-</t>
+  </si>
+  <si>
+    <t>MH-JE-</t>
+  </si>
+  <si>
+    <t>MH-EL-</t>
+  </si>
+  <si>
+    <t>MH-OB-</t>
+  </si>
+  <si>
+    <t>MH-AS-</t>
+  </si>
+  <si>
+    <t>MH-SV-</t>
+  </si>
+  <si>
+    <t>MH-RVB-</t>
+  </si>
+  <si>
+    <t>MH-PVB-</t>
+  </si>
+  <si>
+    <t>MH-CC-</t>
+  </si>
+  <si>
+    <t>MH-CB-</t>
+  </si>
+  <si>
+    <t>MH-GR-CON-</t>
+  </si>
+  <si>
+    <t>MH-GRT-CON-</t>
+  </si>
+  <si>
+    <t>MH-VC-AS-</t>
+  </si>
+  <si>
+    <t>MH-VC-SV-</t>
+  </si>
+  <si>
+    <t>MH-VC-CON-</t>
+  </si>
+  <si>
+    <t>MH-CHQ-</t>
+  </si>
+  <si>
+    <t>MH-VCN-</t>
+  </si>
+  <si>
+    <t>MH-VDN-</t>
+  </si>
+  <si>
+    <t>TV 50"</t>
+  </si>
+  <si>
+    <t>TV 60"</t>
+  </si>
+  <si>
+    <t>TV 70"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tv Unit - Big Wall Mounted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tv Unit Large </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tv Unit Medium </t>
+  </si>
+  <si>
+    <t>TV Unit Small</t>
+  </si>
+  <si>
+    <t>Umbrella</t>
+  </si>
+  <si>
+    <t>Vacume Cleaner</t>
+  </si>
+  <si>
+    <t>Vase / Pots</t>
+  </si>
+  <si>
+    <t>Wall Art</t>
+  </si>
+  <si>
+    <t>Wall Unit</t>
+  </si>
+  <si>
+    <t>Wall Unit 2 dr</t>
+  </si>
+  <si>
+    <t>Wall Unit 3 dr</t>
+  </si>
+  <si>
+    <t>Wall Unit 4 dr</t>
+  </si>
+  <si>
+    <t>Wardrobe 2 dr</t>
+  </si>
+  <si>
+    <t>Wardrobe 3 dr</t>
+  </si>
+  <si>
+    <t>Wardrobe 4 dr</t>
+  </si>
+  <si>
+    <t>Wardrobe 5 dr</t>
+  </si>
+  <si>
+    <t>Wardrobe 6 dr</t>
+  </si>
+  <si>
+    <t>Wardrobe Sliding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washing Machine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Despencer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterfall / Fountains </t>
+  </si>
+  <si>
+    <t>Window AC</t>
+  </si>
+  <si>
+    <t>Wine Cooler L</t>
+  </si>
+  <si>
+    <t>Wine Cooler S</t>
+  </si>
+  <si>
+    <t>Wine Rack</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>dfsdgg</t>
+  </si>
+  <si>
+    <t>sdg</t>
+  </si>
+  <si>
+    <t>gaga</t>
+  </si>
+  <si>
+    <t>agag</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>geegh</t>
+  </si>
+  <si>
+    <t>edt</t>
+  </si>
+  <si>
+    <t>dfy5</t>
+  </si>
+  <si>
+    <t>rheh</t>
+  </si>
+  <si>
+    <t>dfh</t>
+  </si>
+  <si>
+    <t>df54</t>
+  </si>
+  <si>
+    <t>hdh54</t>
+  </si>
+  <si>
+    <t>th6</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1127,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1234,6 +1156,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1297,34 +1224,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1626,13 +1554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -1642,372 +1574,356 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>270</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.14985021216407354</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>275</v>
+      <c r="A5" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.49950070721357853</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2</v>
+      <c r="A6" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.39960056577086278</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>268</v>
+      <c r="A8" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.19980028288543139</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>268</v>
+      <c r="A10" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.4975035360678923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="10">
+        <v>8.9910127298444123E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.14144261626025459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.4495506364922206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1.4985021216407355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.99900141442715706</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>303</v>
+      <c r="A23" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="10">
+        <v>8.9910127298444123E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>270</v>
+      <c r="A27" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.19980028288543139</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>267</v>
+      <c r="A30" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.62937089108910882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.91908130127298449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1.2187817256011315</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>267</v>
+      <c r="A33" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.49950070721357853</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>268</v>
+      <c r="A36" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.54945077793493635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.64935091937765199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0.3196804526166902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0.11538466336633663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0.7092910042432814</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>6</v>
+      <c r="A44" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B44" s="10">
+        <v>0.23976033946251768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B45" s="10">
+        <v>9.9900141442715696E-5</v>
       </c>
     </row>
   </sheetData>
@@ -2016,6 +1932,109 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -2037,22 +2056,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -2082,52 +2101,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2155,54 +2174,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="B2">
         <v>998345835</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2228,44 +2247,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +2292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2288,12 +2307,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2319,12 +2338,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2332,7 +2351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2347,17 +2366,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -2380,22 +2399,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -2418,27 +2437,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2465,1482 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A292"/>
+  <sheetViews>
+    <sheetView topLeftCell="A270" workbookViewId="0">
+      <selection sqref="A1:A292"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>0.16983024045261669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>0.74925106082036774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>9.9900141442715703E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>0.11988016973125884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>0.28288523252050918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>9.9900141442715695E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1.4985021216407355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>0.14144261626025459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>3.196804526166902E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>0.79920113154172556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>0.35964050919377649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>0.4495506364922206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1.9980028288543141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>1.6983024045261668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>1.6983024045261668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>5.994008486562942E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>4.9950070721357848E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>9.9900141442715703E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>0.74925106082036774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>5.0043976854314005E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>0.12729835463422914</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>9.190813012729844E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>4.2432784878076377E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>0.20084865629420082</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>1.298701838755304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>0.67932096181046675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>2.597403677510608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>1.2487517680339462</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>0.64935091937765199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>1.9480527581329561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>3.9960056577086275E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>4.9950070721357848E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>0.62937089108910882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>0.4495506364922206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>5.994008486562942E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>0.74925106082036774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>9.9900141442715703E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>0.3196804526166902</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>0.49675345332390375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>8.9910127298444123E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>4.9950070721357848E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>0.62937089108910882</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>0.14385620367751062</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>0.41958059405940595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>0.63017009222065057</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>1.2487517680339462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>0.84915120226308338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>0.4495506364922206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>0.3196804526166902</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>0.39960056577086278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>0.74925106082036774</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <v>0.3196804526166902</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>0.26973038189533238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>8.9910127298444123E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>6.7432595473833096E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>0.94905134370579913</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>8.9910127298444123E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>0.54945077793493635</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>1.2187817256011315</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>0.84915120226308338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>0.67932096181046675</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>0.35964050919377649</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="10">
+        <v>9.9900141442715688E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="10">
+        <v>9.9900141442715688E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="10">
+        <v>9.9900141442715688E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>9.9900141442715688E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="10">
+        <v>0.13986019801980198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="10">
+        <v>2.4975035360678923</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="10">
+        <v>0.33966048090523338</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="10">
+        <v>5.994008486562942E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="10">
+        <v>8.9910127298444123E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="10">
+        <v>0.21978031117397454</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
+        <v>0.39960056577086278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="10">
+        <v>7.9920113154172551E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
+        <v>9.9900141442715695E-7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="10">
+        <v>0.47952067892503536</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="10">
+        <v>0.28288523252050918</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="10">
+        <v>0.13486519094766619</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="10">
+        <v>9.9900141442715688E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="10">
+        <v>0.1298701838755304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="10">
+        <v>4.65934259688826E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="10">
+        <v>1.4985021216407355</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10">
+        <v>0.8991012729844412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="10">
+        <v>0.76873158840169731</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="10">
+        <v>0.47832187722772274</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="10">
+        <v>1.0789215275813295</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="10">
+        <v>0.11988016973125884</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="10">
+        <v>0.11988016973125884</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="10">
+        <v>6.9930099009900992E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="10">
+        <v>3.9960056577086275E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="10">
+        <v>7.4925106082036771E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="10">
+        <v>9.9900141442715703E-6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="10">
+        <v>7.9920113154172551E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="10">
+        <v>9.2307730693069315E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="10">
+        <v>4.4955063649222061E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="10">
+        <v>1.2487517680339462E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="10">
+        <v>0.64935091937765199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="10">
+        <v>4.9950070721357848E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="10">
+        <v>1.9980028288543141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="10">
+        <v>5.994008486562942E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="10">
+        <v>0.12487517680339463</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="10">
+        <v>4.9950070721357848E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="10">
+        <v>2.4975035360678923</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="10">
+        <v>0.84915120226308338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="10">
+        <v>4.9950070721357848E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="10">
+        <v>3.2967046676096179E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="10">
+        <v>0.59940084865629417</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="10">
+        <v>1.2446958981612446</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="10">
+        <v>1.4985021216407355E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="10">
+        <v>4.9950070721357848E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="10">
+        <v>0.64935091937765199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="10">
+        <v>0.30293319290523341</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="10">
+        <v>0.62937089108910882</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="10">
+        <v>0.91908130127298449</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="10">
+        <v>1.2187817256011315</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="10">
+        <v>1.9980028288543141</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="10">
+        <v>0.79920113154172556</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="10">
+        <v>1.3986019801980196</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="10">
+        <v>1.9980028288543141</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="10">
+        <v>2.6973038189533236</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="10">
+        <v>1.2487517680339462</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="10">
+        <v>2.6973038189533236</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="10">
+        <v>4.2457560113154171</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="10">
+        <v>6.9930099009900992E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="10">
+        <v>2.997004243281471E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="10">
+        <v>0.11988016973125884</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="10">
+        <v>5.994008486562942E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="10">
+        <v>0.11988016973125884</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="10">
+        <v>1.2487517680339462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="10">
+        <v>0.22977032531824612</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="10">
+        <v>0.39960056577086278</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="10">
+        <v>2.4975035360678923</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="10">
+        <v>8.9910127298444123E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="10">
+        <v>0.14144261626025459</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="10">
+        <v>0.4495506364922206</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="10">
+        <v>1.4985021216407355</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="10">
+        <v>0.99900141442715706</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="10">
+        <v>0.29970042432814709</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="10">
+        <v>8.9910127298444123E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="10">
+        <v>0.14985021216407354</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="10">
+        <v>9.9900141442715695E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="10">
+        <v>0.62937089108910882</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="10">
+        <v>0.91908130127298449</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="10">
+        <v>1.2187817256011315</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="10">
+        <v>0.34965049504950491</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="10">
+        <v>0.54945077793493635</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="10">
+        <v>0.64935091937765199</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="10">
+        <v>0.49950070721357853</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="10">
+        <v>0.3196804526166902</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="10">
+        <v>0.11538466336633663</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="10">
+        <v>0.24975035360678927</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="10">
+        <v>0.19980028288543139</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="10">
+        <v>0.7092910042432814</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="10">
+        <v>0.23976033946251768</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="10">
+        <v>9.9900141442715696E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2461,12 +3955,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2474,99 +3968,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2">
-        <v>679876544</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2">
-        <v>357</v>
-      </c>
-      <c r="I2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2575,39 +3987,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>382</v>
+        <v>246</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>376</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
-        <v>377</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="F1" t="s">
-        <v>379</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>383</v>
+      <c r="B2" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="D2">
         <v>1122</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>381</v>
+      <c r="E2" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -2626,7 +4038,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="D7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,66 +4046,65 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>367</v>
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>212</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2">
         <v>679876544</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="G2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2">
         <v>357</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>373</v>
+      <c r="I2" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2709,67 +4120,74 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>367</v>
+      <c r="A1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>311</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="A2" s="8">
+        <v>212</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="8">
         <v>679876544</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="G2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="8">
         <v>357</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>373</v>
+      <c r="I2" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2782,10 +4200,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>311</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="8">
+        <v>679876544</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="8">
+        <v>357</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,91 +4300,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>346</v>
+      <c r="A1" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>359</v>
+        <v>219</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>359</v>
+        <v>217</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +4392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2910,12 +4404,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +4417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU2"/>
   <sheetViews>
@@ -2939,444 +4433,444 @@
   <sheetData>
     <row r="1" spans="1:73" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BO1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BU1" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:73" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AC2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AH2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BN2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BD2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BJ2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3385,11 +4879,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3401,711 +4895,598 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
+++ b/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="357">
   <si>
     <t>Article</t>
   </si>
@@ -981,9 +981,6 @@
     <t>MH-VDN-</t>
   </si>
   <si>
-    <t>TV 50"</t>
-  </si>
-  <si>
     <t>TV 60"</t>
   </si>
   <si>
@@ -1065,52 +1062,49 @@
     <t>Wine Rack</t>
   </si>
   <si>
-    <t>dfs</t>
-  </si>
-  <si>
-    <t>dfsdf</t>
-  </si>
-  <si>
-    <t>dfsdgg</t>
-  </si>
-  <si>
-    <t>sdg</t>
-  </si>
-  <si>
-    <t>gaga</t>
-  </si>
-  <si>
-    <t>agag</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>geegh</t>
-  </si>
-  <si>
-    <t>edt</t>
-  </si>
-  <si>
-    <t>dfy5</t>
-  </si>
-  <si>
-    <t>rheh</t>
-  </si>
-  <si>
-    <t>dfh</t>
-  </si>
-  <si>
-    <t>df54</t>
-  </si>
-  <si>
-    <t>hdh54</t>
-  </si>
-  <si>
-    <t>th6</t>
+    <t>FASFA</t>
+  </si>
+  <si>
+    <t>ASFG</t>
+  </si>
+  <si>
+    <t>ASGS</t>
+  </si>
+  <si>
+    <t>GASG</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>GSDE</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>BXCBXCB</t>
+  </si>
+  <si>
+    <t>XCBXC</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>SDFSDFS</t>
+  </si>
+  <si>
+    <t>DFSDFSD</t>
+  </si>
+  <si>
+    <t>SDFSDFSSDF</t>
+  </si>
+  <si>
+    <t>SDF</t>
   </si>
 </sst>
 </file>
@@ -1556,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1570,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="10">
         <v>0.99900141442715706</v>
@@ -1584,7 +1578,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" s="10">
         <v>0.24975035360678927</v>
@@ -1600,7 +1594,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B5" s="10">
         <v>0.49950070721357853</v>
@@ -1608,7 +1602,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B6" s="10">
         <v>0.19980028288543139</v>
@@ -1616,7 +1610,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" s="10">
         <v>0.39960056577086278</v>
@@ -1632,7 +1626,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B9" s="10">
         <v>0.19980028288543139</v>
@@ -1640,7 +1634,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B10" s="10">
         <v>0.34965049504950491</v>
@@ -1648,7 +1642,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B11" s="10">
         <v>9.9900141442715696E-5</v>
@@ -1656,7 +1650,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B12" s="10">
         <v>2.4975035360678923</v>
@@ -1664,7 +1658,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B13" s="10">
         <v>0.29970042432814709</v>
@@ -1672,7 +1666,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B14" s="10">
         <v>0.99900141442715706</v>
@@ -1680,7 +1674,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B15" s="10">
         <v>0.14985021216407354</v>
@@ -1688,7 +1682,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B16" s="10">
         <v>8.9910127298444123E-2</v>
@@ -1696,7 +1690,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B17" s="10">
         <v>0.14144261626025459</v>
@@ -1704,7 +1698,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="B18" s="10">
         <v>0.24975035360678927</v>
@@ -1712,7 +1706,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19" s="10">
         <v>0.34965049504950491</v>
@@ -1720,7 +1714,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B20" s="10">
         <v>0.4495506364922206</v>
@@ -1728,7 +1722,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B21" s="10">
         <v>1.4985021216407355</v>
@@ -1736,7 +1730,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B22" s="10">
         <v>0.99900141442715706</v>
@@ -1744,7 +1738,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B23" s="10">
         <v>0.49950070721357853</v>
@@ -1752,7 +1746,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B24" s="10">
         <v>0.29970042432814709</v>
@@ -1760,7 +1754,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B25" s="10">
         <v>0.34965049504950491</v>
@@ -1768,7 +1762,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B26" s="10">
         <v>8.9910127298444123E-2</v>
@@ -1776,7 +1770,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" s="10">
         <v>0.14985021216407354</v>
@@ -1784,7 +1778,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B28" s="10">
         <v>9.9900141442715695E-2</v>
@@ -1792,7 +1786,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="10">
         <v>0.19980028288543139</v>
@@ -1800,7 +1794,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B30" s="10">
         <v>0.62937089108910882</v>
@@ -1808,7 +1802,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" s="10">
         <v>0.91908130127298449</v>
@@ -1816,7 +1810,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="10">
         <v>1.2187817256011315</v>
@@ -1824,7 +1818,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" s="10">
         <v>0.24975035360678927</v>
@@ -1832,7 +1826,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" s="10">
         <v>0.34965049504950491</v>
@@ -1840,7 +1834,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="10">
         <v>0.49950070721357853</v>
@@ -1848,7 +1842,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" s="10">
         <v>0.54945077793493635</v>
@@ -1856,7 +1850,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" s="10">
         <v>0.64935091937765199</v>
@@ -1864,7 +1858,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="10">
         <v>0.49950070721357853</v>
@@ -1872,7 +1866,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B39" s="10">
         <v>0.3196804526166902</v>
@@ -1880,7 +1874,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B40" s="10">
         <v>0.11538466336633663</v>
@@ -1888,7 +1882,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B41" s="10">
         <v>0.24975035360678927</v>
@@ -1896,7 +1890,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B42" s="10">
         <v>0.19980028288543139</v>
@@ -1904,7 +1898,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B43" s="10">
         <v>0.7092910042432814</v>
@@ -1912,7 +1906,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B44" s="10">
         <v>0.23976033946251768</v>
@@ -1920,7 +1914,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" s="10">
         <v>9.9900141442715696E-5</v>

--- a/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
+++ b/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
@@ -4,30 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Addarticle" sheetId="1" r:id="rId1"/>
-    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId2"/>
-    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId3"/>
-    <sheet name="Addroom" sheetId="6" r:id="rId4"/>
-    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId5"/>
-    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId6"/>
-    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId7"/>
-    <sheet name="AccountGroups" sheetId="8" r:id="rId8"/>
-    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId9"/>
-    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId10"/>
-    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId11"/>
-    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId12"/>
-    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId13"/>
-    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId14"/>
+    <sheet name="costingProfile" sheetId="17" r:id="rId2"/>
+    <sheet name="emp" sheetId="18" r:id="rId3"/>
+    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId4"/>
+    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId5"/>
+    <sheet name="Addroom" sheetId="6" r:id="rId6"/>
+    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId7"/>
+    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId8"/>
+    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId9"/>
+    <sheet name="AccountGroups" sheetId="8" r:id="rId10"/>
+    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId11"/>
+    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId12"/>
+    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId13"/>
+    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId14"/>
+    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId15"/>
+    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="904">
   <si>
     <t>Article</t>
   </si>
@@ -998,15 +1000,6 @@
     <t>Dining Room</t>
   </si>
   <si>
-    <t>Shelf-Book</t>
-  </si>
-  <si>
-    <t>Carton(Small)</t>
-  </si>
-  <si>
-    <t>Carton(Medium)</t>
-  </si>
-  <si>
     <t>Carton(large)</t>
   </si>
   <si>
@@ -2655,13 +2648,109 @@
   </si>
   <si>
     <t>Dresser with Mirror</t>
+  </si>
+  <si>
+    <t>sdgf</t>
+  </si>
+  <si>
+    <t>asfgs</t>
+  </si>
+  <si>
+    <t>sfaf</t>
+  </si>
+  <si>
+    <t>Activiy Name</t>
+  </si>
+  <si>
+    <t>Sub Activity</t>
+  </si>
+  <si>
+    <t>Product type</t>
+  </si>
+  <si>
+    <t>Transport mode</t>
+  </si>
+  <si>
+    <t>Shipment type</t>
+  </si>
+  <si>
+    <t>Is Multiply</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Provisional cost</t>
+  </si>
+  <si>
+    <t>Minimum 
+Amount</t>
+  </si>
+  <si>
+    <t>Auto costing 
+(Yes/No)</t>
+  </si>
+  <si>
+    <t>Edit 
+Provisional (Yes)</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Activity Code</t>
+  </si>
+  <si>
+    <t>costing</t>
+  </si>
+  <si>
+    <t>packing</t>
+  </si>
+  <si>
+    <t>Door to Door Export</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>cft</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Per unit</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>nagendra</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>haandyman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2698,6 +2787,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2725,7 +2829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2759,12 +2863,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2781,6 +2900,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3088,11 +3220,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B603"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -3104,23 +3239,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>323</v>
+        <v>873</v>
       </c>
       <c r="B2" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>324</v>
+        <v>874</v>
       </c>
       <c r="B3" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>325</v>
+        <v>875</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
@@ -3128,7 +3263,7 @@
     </row>
     <row r="5" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B5" s="8">
         <v>4.5</v>
@@ -3136,7 +3271,7 @@
     </row>
     <row r="6" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B6" s="8">
         <v>6</v>
@@ -3144,7 +3279,7 @@
     </row>
     <row r="7" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B7" s="8">
         <v>7</v>
@@ -3152,7 +3287,7 @@
     </row>
     <row r="8" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B8" s="8">
         <v>10</v>
@@ -3160,7 +3295,7 @@
     </row>
     <row r="9" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B9" s="8">
         <v>12</v>
@@ -3168,7 +3303,7 @@
     </row>
     <row r="10" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
@@ -3176,7 +3311,7 @@
     </row>
     <row r="11" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B11" s="8">
         <v>5</v>
@@ -3184,7 +3319,7 @@
     </row>
     <row r="12" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B12" s="8">
         <v>12</v>
@@ -3192,7 +3327,7 @@
     </row>
     <row r="13" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B13" s="8">
         <v>32</v>
@@ -3200,7 +3335,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B14" s="8">
         <v>25</v>
@@ -3208,7 +3343,7 @@
     </row>
     <row r="15" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B15" s="8">
         <v>15</v>
@@ -3216,7 +3351,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B16" s="8">
         <v>25</v>
@@ -3224,7 +3359,7 @@
     </row>
     <row r="17" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B17" s="8">
         <v>15</v>
@@ -3232,7 +3367,7 @@
     </row>
     <row r="18" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B18" s="8">
         <v>5</v>
@@ -3240,79 +3375,79 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B19" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B20" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B21" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B22" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B23" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B24" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B25" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B26" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B27" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B28" s="8">
         <v>50</v>
@@ -3320,63 +3455,63 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B29" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B30" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B31" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B32" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B33" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B34" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B35" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B36" s="8">
         <v>10</v>
@@ -3384,15 +3519,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B37" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B38" s="8">
         <v>25</v>
@@ -3400,7 +3535,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B39" s="8">
         <v>5</v>
@@ -3408,7 +3543,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B40" s="8">
         <v>7</v>
@@ -3416,7 +3551,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B41" s="8">
         <v>9</v>
@@ -3424,7 +3559,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B42" s="8">
         <v>15</v>
@@ -3432,47 +3567,47 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B43" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B44" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B45" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B46" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B47" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B48" s="8">
         <v>10</v>
@@ -3480,7 +3615,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B49" s="8">
         <v>25</v>
@@ -3488,7 +3623,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B50" s="8">
         <v>8</v>
@@ -3496,7 +3631,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B51" s="8">
         <v>30</v>
@@ -3504,7 +3639,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B52" s="8">
         <v>3</v>
@@ -3512,7 +3647,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B53" s="8">
         <v>40</v>
@@ -3520,7 +3655,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B54" s="8">
         <v>50</v>
@@ -3528,7 +3663,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B55" s="8">
         <v>60</v>
@@ -3536,7 +3671,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B56" s="8">
         <v>5</v>
@@ -3544,7 +3679,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B57" s="8">
         <v>50</v>
@@ -3552,23 +3687,23 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B58" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B59" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B60" s="8">
         <v>30</v>
@@ -3576,71 +3711,71 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B61" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B62" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B63" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B64" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B65" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B66" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B67" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B68" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B69" s="8">
         <v>5</v>
@@ -3648,7 +3783,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B70" s="8">
         <v>10</v>
@@ -3656,15 +3791,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B71" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B72" s="8">
         <v>10</v>
@@ -3672,23 +3807,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B73" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B74" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B75" s="8">
         <v>35</v>
@@ -3696,7 +3831,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B76" s="8">
         <v>40</v>
@@ -3704,7 +3839,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B77" s="8">
         <v>42</v>
@@ -3712,7 +3847,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B78" s="8">
         <v>20</v>
@@ -3720,23 +3855,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B79" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B80" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B81" s="8">
         <v>10</v>
@@ -3744,15 +3879,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B82" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B83" s="8">
         <v>10</v>
@@ -3760,39 +3895,39 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B84" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B85" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B86" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B87" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B88" s="8">
         <v>15</v>
@@ -3800,7 +3935,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B89" s="8">
         <v>10</v>
@@ -3808,23 +3943,23 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B90" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B91" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B92" s="8">
         <v>20</v>
@@ -3832,15 +3967,15 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B93" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B94" s="8">
         <v>20</v>
@@ -3848,31 +3983,31 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B95" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B96" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B97" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B98" s="8">
         <v>20</v>
@@ -3880,23 +4015,23 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B99" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B100" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B101" s="8">
         <v>12</v>
@@ -3904,23 +4039,23 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B102" s="8">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B103" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B104" s="8">
         <v>10</v>
@@ -3928,7 +4063,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B105" s="8">
         <v>1.3</v>
@@ -3936,7 +4071,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B106" s="8">
         <v>10</v>
@@ -3944,47 +4079,47 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B107" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B108" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B109" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B110" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B111" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B112" s="8">
         <v>20</v>
@@ -3992,15 +4127,15 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B113" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B114" s="8">
         <v>7</v>
@@ -4008,23 +4143,23 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B115" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B116" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B117" s="8">
         <v>40</v>
@@ -4032,7 +4167,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B118" s="8">
         <v>5</v>
@@ -4040,7 +4175,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B119" s="8">
         <v>15</v>
@@ -4048,7 +4183,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B120" s="8">
         <v>15</v>
@@ -4056,7 +4191,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B121" s="8">
         <v>30</v>
@@ -4064,7 +4199,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B122" s="8">
         <v>35</v>
@@ -4072,15 +4207,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B123" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B124" s="8">
         <v>5</v>
@@ -4088,23 +4223,23 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B125" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B126" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B127" s="8">
         <v>0.4</v>
@@ -4112,7 +4247,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B128" s="8">
         <v>2.2999999999999998</v>
@@ -4120,7 +4255,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B129" s="8">
         <v>15</v>
@@ -4128,15 +4263,15 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B130" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B131" s="8">
         <v>14</v>
@@ -4144,7 +4279,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B132" s="8">
         <v>3.66</v>
@@ -4152,7 +4287,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B133" s="8">
         <v>3.66</v>
@@ -4160,15 +4295,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B134" s="8">
         <v>3.66</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B135" s="8">
         <v>5.25</v>
@@ -4176,23 +4311,23 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B136" s="8">
         <v>1.66</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B137" s="8">
         <v>3.66</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B138" s="8">
         <v>14.05</v>
@@ -4200,7 +4335,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B139" s="8">
         <v>3.66</v>
@@ -4208,7 +4343,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B140" s="8">
         <v>3.66</v>
@@ -4216,7 +4351,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B141" s="8">
         <v>0.16</v>
@@ -4224,31 +4359,31 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B142" s="8">
         <v>0.03</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B143" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B144" s="8">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B145" s="8">
         <v>33.869999999999997</v>
@@ -4256,71 +4391,71 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B146" s="8">
         <v>1.27</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B147" s="8">
         <v>20.66</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B148" s="8">
         <v>12.18</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B149" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B150" s="8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B151" s="8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B152" s="8">
         <v>9.34</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B153" s="8">
         <v>10.4</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B154" s="8">
         <v>0.03</v>
@@ -4328,23 +4463,23 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B155" s="8">
         <v>2.44</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B156" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B157" s="8">
         <v>1</v>
@@ -4352,7 +4487,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B158" s="8">
         <v>18</v>
@@ -4360,47 +4495,47 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B159" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B160" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B161" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B162" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B163" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B164" s="8">
         <v>25</v>
@@ -4408,39 +4543,39 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B165" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B166" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B167" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B168" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B169" s="8">
         <v>17</v>
@@ -4448,15 +4583,15 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B170" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B171" s="8">
         <v>60</v>
@@ -4464,7 +4599,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B172" s="8">
         <v>5</v>
@@ -4472,7 +4607,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B173" s="8">
         <v>15</v>
@@ -4480,23 +4615,23 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B174" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B175" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B176" s="8">
         <v>5</v>
@@ -4504,95 +4639,95 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B177" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B178" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B179" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B180" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B181" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B182" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B183" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B184" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B185" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B186" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B187" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B188" s="8">
         <v>140</v>
@@ -4600,7 +4735,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B189" s="8">
         <v>30</v>
@@ -4608,7 +4743,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B190" s="8">
         <v>40</v>
@@ -4616,55 +4751,55 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B191" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B192" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B193" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B194" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B195" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B196" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B197" s="8">
         <v>80</v>
@@ -4672,127 +4807,127 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B198" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B199" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B200" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B201" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B202" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B203" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B204" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B205" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B206" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B207" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B208" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B209" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B210" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B211" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B212" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B213" s="8">
         <v>35</v>
@@ -4800,23 +4935,23 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B214" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B215" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B216" s="8">
         <v>10</v>
@@ -4824,7 +4959,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B217" s="8">
         <v>2</v>
@@ -4832,31 +4967,31 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B218" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B219" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B220" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B221" s="8">
         <v>6</v>
@@ -4864,15 +4999,15 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B222" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B223" s="8">
         <v>40</v>
@@ -4880,39 +5015,39 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B224" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B225" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B226" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B227" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B228" s="8">
         <v>160</v>
@@ -4920,15 +5055,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B229" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B230" s="8">
         <v>12</v>
@@ -4936,47 +5071,47 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B231" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B232" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B233" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B234" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B235" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B236" s="8">
         <v>18</v>
@@ -4984,15 +5119,15 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B237" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B238" s="8">
         <v>18</v>
@@ -5000,15 +5135,15 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B239" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B240" s="8">
         <v>10</v>
@@ -5016,31 +5151,31 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B241" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B242" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B243" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B244" s="8">
         <v>80</v>
@@ -5048,39 +5183,39 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B245" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B246" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B247" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B248" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B249" s="8">
         <v>5</v>
@@ -5088,31 +5223,31 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B250" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B251" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B252" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B253" s="8">
         <v>250</v>
@@ -5120,79 +5255,79 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B254" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B255" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B256" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B257" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B258" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B259" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B260" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B261" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B262" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B263" s="8">
         <v>70</v>
@@ -5200,15 +5335,15 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B264" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B265" s="8">
         <v>15</v>
@@ -5216,15 +5351,15 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B266" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B267" s="8">
         <v>10</v>
@@ -5232,23 +5367,23 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B268" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B269" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B270" s="8">
         <v>18</v>
@@ -5256,7 +5391,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B271" s="8">
         <v>5</v>
@@ -5264,15 +5399,15 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B272" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B273" s="8">
         <v>5</v>
@@ -5280,47 +5415,47 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B274" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B275" s="8">
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B276" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B277" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B278" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B279" s="8">
         <v>50</v>
@@ -5328,15 +5463,15 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B280" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B281" s="8">
         <v>60</v>
@@ -5344,7 +5479,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B282" s="8">
         <v>5</v>
@@ -5352,7 +5487,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B283" s="8">
         <v>10</v>
@@ -5360,7 +5495,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B284" s="8">
         <v>10</v>
@@ -5368,39 +5503,39 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B285" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B286" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B287" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B288" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B289" s="8">
         <v>5</v>
@@ -5408,15 +5543,15 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B290" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B291" s="8">
         <v>5</v>
@@ -5424,15 +5559,15 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B292" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B293" s="8">
         <v>5</v>
@@ -5440,87 +5575,87 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B294" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B295" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B296" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B297" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B298" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B299" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B300" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B301" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B302" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B303" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B304" s="8">
         <v>30</v>
@@ -5528,31 +5663,31 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B305" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B306" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B307" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B308" s="8">
         <v>20</v>
@@ -5560,79 +5695,79 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B309" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B310" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B311" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B312" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B313" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B314" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B315" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B316" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B317" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B318" s="8">
         <v>18</v>
@@ -5640,15 +5775,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B319" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B320" s="8">
         <v>5</v>
@@ -5656,7 +5791,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B321" s="8">
         <v>18</v>
@@ -5664,71 +5799,71 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B322" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B323" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B324" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B325" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B326" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B327" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B328" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B329" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B330" s="8">
         <v>8</v>
@@ -5736,15 +5871,15 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B331" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B332" s="8">
         <v>10</v>
@@ -5752,15 +5887,15 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B333" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B334" s="8">
         <v>45</v>
@@ -5768,39 +5903,39 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B335" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B336" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B337" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B338" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B339" s="8">
         <v>10</v>
@@ -5808,7 +5943,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B340" s="8">
         <v>5</v>
@@ -5816,7 +5951,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B341" s="8">
         <v>7</v>
@@ -5824,7 +5959,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B342" s="8">
         <v>15</v>
@@ -5832,7 +5967,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B343" s="8">
         <v>12</v>
@@ -5840,31 +5975,31 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B344" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B345" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B346" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B347" s="8">
         <v>60</v>
@@ -5872,7 +6007,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B348" s="8">
         <v>15</v>
@@ -5880,15 +6015,15 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B349" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B350" s="8">
         <v>10</v>
@@ -5896,39 +6031,39 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B351" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B352" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B353" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B354" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B355" s="8">
         <v>35</v>
@@ -5936,47 +6071,47 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B356" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B357" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B358" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B359" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B360" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B361" s="8">
         <v>10</v>
@@ -5984,63 +6119,63 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B362" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B363" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B364" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B365" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B366" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B367" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B368" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B369" s="8">
         <v>12</v>
@@ -6048,207 +6183,207 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B370" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B371" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B372" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B373" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B374" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B375" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B376" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B377" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B378" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B379" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B380" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B381" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B382" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B383" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B384" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B385" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B386" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B387" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B388" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B389" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B390" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B391" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B392" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B393" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B394" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B395" s="8">
         <v>20</v>
@@ -6256,31 +6391,31 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B396" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B397" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B398" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B399" s="8">
         <v>60</v>
@@ -6288,47 +6423,47 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B400" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B401" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B402" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B403" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B404" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B405" s="8">
         <v>80</v>
@@ -6336,55 +6471,55 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B406" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B407" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B408" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B409" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B410" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B411" s="8">
         <v>120</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B412" s="8">
         <v>18</v>
@@ -6392,31 +6527,31 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B413" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B414" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B415" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B416" s="8">
         <v>12</v>
@@ -6424,23 +6559,23 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B417" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B418" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B419" s="8">
         <v>4</v>
@@ -6448,15 +6583,15 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B420" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B421" s="8">
         <v>8</v>
@@ -6464,7 +6599,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B422" s="8">
         <v>25</v>
@@ -6472,79 +6607,79 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B423" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B424" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B425" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B426" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B427" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B428" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B429" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B430" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B431" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B432" s="8">
         <v>32</v>
@@ -6552,39 +6687,39 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B433" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B434" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B435" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B436" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B437" s="8">
         <v>12</v>
@@ -6592,39 +6727,39 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B438" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B439" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B440" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B441" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B442" s="8">
         <v>60</v>
@@ -6632,31 +6767,31 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B443" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B444" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B445" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B446" s="8">
         <v>25</v>
@@ -6664,23 +6799,23 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B447" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B448" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B449" s="8">
         <v>8</v>
@@ -6688,191 +6823,191 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B450" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B451" s="8">
         <v>270</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B452" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B453" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B454" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B455" s="8">
         <v>130</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B456" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B457" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B458" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B459" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B460" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B461" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B462" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B463" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B464" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B465" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B466" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B467" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B468" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B469" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B470" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B471" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B472" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B473" s="8">
         <v>8</v>
@@ -6880,7 +7015,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B474" s="8">
         <v>6</v>
@@ -6888,23 +7023,23 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B475" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B476" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B477" s="8">
         <v>15</v>
@@ -6912,151 +7047,151 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B478" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B479" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B480" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B481" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B482" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B483" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B484" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B485" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B486" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B487" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B488" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B489" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B490" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B491" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="9" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B492" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B493" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B494" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B495" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B496" s="8">
         <v>15</v>
@@ -7064,15 +7199,15 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B497" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B498" s="8">
         <v>35</v>
@@ -7080,47 +7215,47 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="9" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B499" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B500" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B501" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B502" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B503" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B504" s="8">
         <v>85</v>
@@ -7128,15 +7263,15 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B505" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="9" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B506" s="8">
         <v>10</v>
@@ -7144,175 +7279,175 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B507" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="508" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A508" s="9" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B508" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="9" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B509" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="510" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="9" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B510" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="9" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B511" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="9" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B512" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="9" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B513" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B514" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A515" s="9" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B515" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="9" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B516" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B517" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="9" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B518" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="519" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="9" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B519" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="9" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B520" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="9" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B521" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="9" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B522" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B523" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="9" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B524" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B525" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A526" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B526" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A527" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B527" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A528" s="9" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B528" s="8">
         <v>12</v>
@@ -7320,23 +7455,23 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="9" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B529" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B530" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B531" s="8">
         <v>15</v>
@@ -7344,23 +7479,23 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B532" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B533" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="9" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B534" s="8">
         <v>6</v>
@@ -7368,31 +7503,31 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="9" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B535" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A536" s="9" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B536" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="9" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B537" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="9" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B538" s="8">
         <v>10</v>
@@ -7400,47 +7535,47 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B539" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="9" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B540" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B541" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B542" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B543" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B544" s="8">
         <v>170</v>
@@ -7448,15 +7583,15 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="9" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B545" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B546" s="8">
         <v>35</v>
@@ -7464,39 +7599,39 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B547" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B548" s="8">
         <v>3.6</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="9" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B549" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B550" s="8">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B551" s="8">
         <v>0.5</v>
@@ -7504,53 +7639,53 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B552" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B553" s="8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B554" s="8">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B555" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B556" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B557" s="8">
         <v>0.85</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="9" t="s">
         <v>261</v>
       </c>
@@ -7558,7 +7693,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="9" t="s">
         <v>262</v>
       </c>
@@ -7566,7 +7701,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="9" t="s">
         <v>263</v>
       </c>
@@ -7590,7 +7725,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="9" t="s">
         <v>265</v>
       </c>
@@ -7606,7 +7741,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="9" t="s">
         <v>267</v>
       </c>
@@ -7622,7 +7757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="567" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="s">
         <v>269</v>
       </c>
@@ -7630,7 +7765,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="9" t="s">
         <v>270</v>
       </c>
@@ -7638,7 +7773,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="9" t="s">
         <v>271</v>
       </c>
@@ -7646,7 +7781,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="570" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="9" t="s">
         <v>272</v>
       </c>
@@ -7654,7 +7789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="9" t="s">
         <v>273</v>
       </c>
@@ -7662,7 +7797,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="s">
         <v>274</v>
       </c>
@@ -7670,7 +7805,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="9" t="s">
         <v>275</v>
       </c>
@@ -7678,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="9" t="s">
         <v>276</v>
       </c>
@@ -7686,7 +7821,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="9" t="s">
         <v>277</v>
       </c>
@@ -7694,7 +7829,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="9" t="s">
         <v>278</v>
       </c>
@@ -7702,7 +7837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="s">
         <v>279</v>
       </c>
@@ -7710,7 +7845,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="9" t="s">
         <v>280</v>
       </c>
@@ -7726,7 +7861,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="9" t="s">
         <v>282</v>
       </c>
@@ -7734,7 +7869,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="9" t="s">
         <v>283</v>
       </c>
@@ -7742,7 +7877,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="9" t="s">
         <v>284</v>
       </c>
@@ -7758,7 +7893,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="9" t="s">
         <v>286</v>
       </c>
@@ -7766,7 +7901,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="9" t="s">
         <v>287</v>
       </c>
@@ -7782,7 +7917,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="s">
         <v>289</v>
       </c>
@@ -7790,7 +7925,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="9" t="s">
         <v>290</v>
       </c>
@@ -7806,7 +7941,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="9" t="s">
         <v>292</v>
       </c>
@@ -7814,7 +7949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="9" t="s">
         <v>293</v>
       </c>
@@ -7830,7 +7965,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="s">
         <v>295</v>
       </c>
@@ -7838,7 +7973,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="s">
         <v>296</v>
       </c>
@@ -7846,7 +7981,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="9" t="s">
         <v>297</v>
       </c>
@@ -7854,7 +7989,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="9" t="s">
         <v>298</v>
       </c>
@@ -7862,7 +7997,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="597" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="s">
         <v>299</v>
       </c>
@@ -7870,7 +8005,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="598" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="9" t="s">
         <v>300</v>
       </c>
@@ -7878,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="9" t="s">
         <v>301</v>
       </c>
@@ -7894,7 +8029,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="601" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="9" t="s">
         <v>303</v>
       </c>
@@ -7910,7 +8045,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="603" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="9" t="s">
         <v>305</v>
       </c>
@@ -7924,6 +8059,97 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -7954,7 +8180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -7987,7 +8213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -8025,7 +8251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -8068,7 +8294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -8097,6 +8323,278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E2" t="s">
+        <v>900</v>
+      </c>
+      <c r="F2" t="s">
+        <v>900</v>
+      </c>
+      <c r="G2" t="s">
+        <v>896</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="I2" t="s">
+        <v>894</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="L2" t="s">
+        <v>893</v>
+      </c>
+      <c r="M2" t="s">
+        <v>893</v>
+      </c>
+      <c r="N2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU2"/>
   <sheetViews>
@@ -8558,7 +9056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
@@ -9170,7 +9668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
@@ -9283,7 +9781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9328,7 +9826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -9403,7 +9901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -9476,95 +9974,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
+++ b/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Addarticle" sheetId="1" r:id="rId1"/>
     <sheet name="costingProfile" sheetId="17" r:id="rId2"/>
-    <sheet name="emp" sheetId="18" r:id="rId3"/>
+    <sheet name="PackingMaterial" sheetId="18" r:id="rId3"/>
     <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId4"/>
     <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId5"/>
     <sheet name="Addroom" sheetId="6" r:id="rId6"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="915">
   <si>
     <t>Article</t>
   </si>
@@ -2731,9 +2731,6 @@
     <t>600</t>
   </si>
   <si>
-    <t>nagendra</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -2744,6 +2741,42 @@
   </si>
   <si>
     <t>haandyman</t>
+  </si>
+  <si>
+    <t>MaterialName</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>nos12</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>3e</t>
+  </si>
+  <si>
+    <t>ew</t>
+  </si>
+  <si>
+    <t>we</t>
   </si>
 </sst>
 </file>
@@ -8326,7 +8359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -8406,10 +8439,10 @@
         <v>891</v>
       </c>
       <c r="E2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G2" t="s">
         <v>896</v>
@@ -8444,16 +8477,16 @@
         <v>889</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>891</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>896</v>
@@ -8488,16 +8521,16 @@
         <v>889</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>891</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>896</v>
@@ -8532,16 +8565,16 @@
         <v>889</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>891</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>896</v>
@@ -8576,17 +8609,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>899</v>
+        <v>903</v>
+      </c>
+      <c r="B1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>910</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
+++ b/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
@@ -4,35 +4,37 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Addarticle" sheetId="1" r:id="rId1"/>
     <sheet name="costingProfile" sheetId="17" r:id="rId2"/>
-    <sheet name="EditcostingProfile" sheetId="19" r:id="rId3"/>
-    <sheet name="PackingMaterial" sheetId="18" r:id="rId4"/>
-    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId5"/>
-    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId6"/>
-    <sheet name="Addroom" sheetId="6" r:id="rId7"/>
-    <sheet name="Incomeadd" sheetId="20" r:id="rId8"/>
-    <sheet name="Expenseadd" sheetId="21" r:id="rId9"/>
-    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId10"/>
-    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId11"/>
-    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId12"/>
-    <sheet name="AccountGroups" sheetId="8" r:id="rId13"/>
-    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId14"/>
-    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId15"/>
-    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId16"/>
-    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId17"/>
-    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId18"/>
-    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId19"/>
+    <sheet name="a" sheetId="19" r:id="rId3"/>
+    <sheet name="EditcostingProfile" sheetId="22" r:id="rId4"/>
+    <sheet name="Location" sheetId="23" r:id="rId5"/>
+    <sheet name="PackingMaterial" sheetId="18" r:id="rId6"/>
+    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId7"/>
+    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId8"/>
+    <sheet name="Addroom" sheetId="6" r:id="rId9"/>
+    <sheet name="Incomeadd" sheetId="20" r:id="rId10"/>
+    <sheet name="Expenseadd" sheetId="21" r:id="rId11"/>
+    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId12"/>
+    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId13"/>
+    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId14"/>
+    <sheet name="AccountGroups" sheetId="8" r:id="rId15"/>
+    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId16"/>
+    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId17"/>
+    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId18"/>
+    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId19"/>
+    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId20"/>
+    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1083">
   <si>
     <t>Article</t>
   </si>
@@ -2884,211 +2886,406 @@
     <t>Activity</t>
   </si>
   <si>
+    <t>Destination Agent Charges - Export (Income)</t>
+  </si>
+  <si>
+    <t>Shipping Charges / Ocean Freights -  Export(Income)</t>
+  </si>
+  <si>
+    <t>Packing Material- Export (Income)</t>
+  </si>
+  <si>
+    <t>Labor Charges - Export(Income)</t>
+  </si>
+  <si>
+    <t>Transportation Charges- Export (Income)</t>
+  </si>
+  <si>
+    <t>Loading / Unloading Charges- Export (Income)</t>
+  </si>
+  <si>
+    <t>Car Lashing - Export(Income)</t>
+  </si>
+  <si>
+    <t>Crating- Export (Income)</t>
+  </si>
+  <si>
+    <t>DTHC- Export (Income)</t>
+  </si>
+  <si>
+    <t>B/L Fees - Export(Income)</t>
+  </si>
+  <si>
+    <t>Seal Charges- Export (Income)</t>
+  </si>
+  <si>
+    <t>ED Charges- Export (Income)</t>
+  </si>
+  <si>
+    <t>D/O Fees - Export(Income)</t>
+  </si>
+  <si>
+    <t>Local Agent Charges-Export(Income)</t>
+  </si>
+  <si>
+    <t>Transportation of Container- Export (Income)</t>
+  </si>
+  <si>
+    <t>Token / VGM Charges- Export (Income)</t>
+  </si>
+  <si>
+    <t>Miscellaneous Charges-Export (Income)</t>
+  </si>
+  <si>
+    <t>Border Charges - Export (Income)</t>
+  </si>
+  <si>
+    <t>Airline Charges-Export (Income)</t>
+  </si>
+  <si>
+    <t>Packing &amp; Collection -Export (Income)</t>
+  </si>
+  <si>
+    <t>Uncrating- Import  (Income)</t>
+  </si>
+  <si>
+    <t>Labor Charges- Import (Income)</t>
+  </si>
+  <si>
+    <t>Transportation Charges-Import (Income)</t>
+  </si>
+  <si>
+    <t>Loading / Unloading Charges- Import (Income)</t>
+  </si>
+  <si>
+    <t>THC- Import (Income)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D/O Fees - Import (Income)</t>
+  </si>
+  <si>
+    <t>B/L Fees - Import (Income)</t>
+  </si>
+  <si>
+    <t>ED Charges - Import (Income)</t>
+  </si>
+  <si>
+    <t>Transportation of Container - Import(Income)</t>
+  </si>
+  <si>
+    <t>Token / VGM Charges-Import (Income)</t>
+  </si>
+  <si>
+    <t>Packing Material- Local (Income)</t>
+  </si>
+  <si>
+    <t>Labor Charges-Local (Income)</t>
+  </si>
+  <si>
+    <t>Transportation Charges-Local (Income)</t>
+  </si>
+  <si>
+    <t>Miscellaneous Charges-Local (Income)</t>
+  </si>
+  <si>
+    <t>Destination Agent Charges - Export (Expense)</t>
+  </si>
+  <si>
+    <t>Shipping Charges / Ocean Freights -  Export(Expense)</t>
+  </si>
+  <si>
+    <t>Packing Material- Export (Expense)</t>
+  </si>
+  <si>
+    <t>Labor Charges - Export(Expense)</t>
+  </si>
+  <si>
+    <t>Transportation Charges- Export (Expense)</t>
+  </si>
+  <si>
+    <t>Loading / Unloading Charges- Export (Expense)</t>
+  </si>
+  <si>
+    <t>Car Lashing - Export(Expense)</t>
+  </si>
+  <si>
+    <t>Crating- Export (Expense)</t>
+  </si>
+  <si>
+    <t>DTHC- Export (Expense)</t>
+  </si>
+  <si>
+    <t>B/L Fees - Export(Expense)</t>
+  </si>
+  <si>
+    <t>Seal Charges- Export (Expense)</t>
+  </si>
+  <si>
+    <t>ED Charges- Export (Expense)</t>
+  </si>
+  <si>
+    <t>D/O Fees - Export(Expense)</t>
+  </si>
+  <si>
+    <t>Local Agent Charges-Export(Expense)</t>
+  </si>
+  <si>
+    <t>Transportation of Container- Export (Expense)</t>
+  </si>
+  <si>
+    <t>Token / VGM Charges- Export (Expense)</t>
+  </si>
+  <si>
+    <t>Miscellaneous Charges-Export (Expense)</t>
+  </si>
+  <si>
+    <t>Border Charges - Export (Expense)</t>
+  </si>
+  <si>
+    <t>Airline Charges-Export (Expense)</t>
+  </si>
+  <si>
+    <t>Packing &amp; Collection -Export (Expense)</t>
+  </si>
+  <si>
+    <t>Uncrating- Import  (Expense)</t>
+  </si>
+  <si>
+    <t>Labor Charges- Import (Expense)</t>
+  </si>
+  <si>
+    <t>Transportation Charges-Import (Expense)</t>
+  </si>
+  <si>
+    <t>Loading / Unloading Charges- Import (Expense)</t>
+  </si>
+  <si>
+    <t>THC- Import (Expense)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D/O Fees - Import (Expense)</t>
+  </si>
+  <si>
+    <t>B/L Fees - Import (Expense)</t>
+  </si>
+  <si>
+    <t>ED Charges - Import (Expense)</t>
+  </si>
+  <si>
+    <t>Transportation of Container - Import(Expense)</t>
+  </si>
+  <si>
+    <t>Token / VGM Charges-Import (Expense)</t>
+  </si>
+  <si>
+    <t>Packing Material- Local (Expense)</t>
+  </si>
+  <si>
+    <t>Labor Charges-Local (Expense)</t>
+  </si>
+  <si>
+    <t>Transportation Charges-Local (Expense)</t>
+  </si>
+  <si>
+    <t>Miscellaneous Charges-Local (Expense)</t>
+  </si>
+  <si>
+    <t>subactivity</t>
+  </si>
+  <si>
     <t>EXPORT_FC</t>
   </si>
   <si>
-    <t>Destination Agent Charges - Export (Income)</t>
-  </si>
-  <si>
-    <t>Shipping Charges / Ocean Freights -  Export(Income)</t>
-  </si>
-  <si>
-    <t>Packing Material- Export (Income)</t>
-  </si>
-  <si>
-    <t>Labor Charges - Export(Income)</t>
-  </si>
-  <si>
-    <t>Transportation Charges- Export (Income)</t>
-  </si>
-  <si>
-    <t>Loading / Unloading Charges- Export (Income)</t>
-  </si>
-  <si>
-    <t>Car Lashing - Export(Income)</t>
-  </si>
-  <si>
-    <t>Crating- Export (Income)</t>
-  </si>
-  <si>
-    <t>DTHC- Export (Income)</t>
-  </si>
-  <si>
-    <t>B/L Fees - Export(Income)</t>
-  </si>
-  <si>
-    <t>Seal Charges- Export (Income)</t>
-  </si>
-  <si>
-    <t>ED Charges- Export (Income)</t>
-  </si>
-  <si>
-    <t>D/O Fees - Export(Income)</t>
-  </si>
-  <si>
-    <t>Local Agent Charges-Export(Income)</t>
-  </si>
-  <si>
-    <t>Transportation of Container- Export (Income)</t>
-  </si>
-  <si>
-    <t>Token / VGM Charges- Export (Income)</t>
-  </si>
-  <si>
-    <t>Miscellaneous Charges-Export (Income)</t>
-  </si>
-  <si>
-    <t>Border Charges - Export (Income)</t>
-  </si>
-  <si>
-    <t>Airline Charges-Export (Income)</t>
-  </si>
-  <si>
-    <t>Packing &amp; Collection -Export (Income)</t>
-  </si>
-  <si>
-    <t>Uncrating- Import  (Income)</t>
-  </si>
-  <si>
-    <t>Labor Charges- Import (Income)</t>
-  </si>
-  <si>
-    <t>Transportation Charges-Import (Income)</t>
-  </si>
-  <si>
-    <t>Loading / Unloading Charges- Import (Income)</t>
-  </si>
-  <si>
-    <t>THC- Import (Income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D/O Fees - Import (Income)</t>
-  </si>
-  <si>
-    <t>B/L Fees - Import (Income)</t>
-  </si>
-  <si>
-    <t>ED Charges - Import (Income)</t>
-  </si>
-  <si>
-    <t>Transportation of Container - Import(Income)</t>
-  </si>
-  <si>
-    <t>Token / VGM Charges-Import (Income)</t>
-  </si>
-  <si>
-    <t>Packing Material- Local (Income)</t>
-  </si>
-  <si>
-    <t>Labor Charges-Local (Income)</t>
-  </si>
-  <si>
-    <t>Transportation Charges-Local (Income)</t>
-  </si>
-  <si>
-    <t>Miscellaneous Charges-Local (Income)</t>
-  </si>
-  <si>
-    <t>Destination Agent Charges - Export (Expense)</t>
-  </si>
-  <si>
-    <t>Shipping Charges / Ocean Freights -  Export(Expense)</t>
-  </si>
-  <si>
-    <t>Packing Material- Export (Expense)</t>
-  </si>
-  <si>
-    <t>Labor Charges - Export(Expense)</t>
-  </si>
-  <si>
-    <t>Transportation Charges- Export (Expense)</t>
-  </si>
-  <si>
-    <t>Loading / Unloading Charges- Export (Expense)</t>
-  </si>
-  <si>
-    <t>Car Lashing - Export(Expense)</t>
-  </si>
-  <si>
-    <t>Crating- Export (Expense)</t>
-  </si>
-  <si>
-    <t>DTHC- Export (Expense)</t>
-  </si>
-  <si>
-    <t>B/L Fees - Export(Expense)</t>
-  </si>
-  <si>
-    <t>Seal Charges- Export (Expense)</t>
-  </si>
-  <si>
-    <t>ED Charges- Export (Expense)</t>
-  </si>
-  <si>
-    <t>D/O Fees - Export(Expense)</t>
-  </si>
-  <si>
-    <t>Local Agent Charges-Export(Expense)</t>
-  </si>
-  <si>
-    <t>Transportation of Container- Export (Expense)</t>
-  </si>
-  <si>
-    <t>Token / VGM Charges- Export (Expense)</t>
-  </si>
-  <si>
-    <t>Miscellaneous Charges-Export (Expense)</t>
-  </si>
-  <si>
-    <t>Border Charges - Export (Expense)</t>
-  </si>
-  <si>
-    <t>Airline Charges-Export (Expense)</t>
-  </si>
-  <si>
-    <t>Packing &amp; Collection -Export (Expense)</t>
-  </si>
-  <si>
-    <t>Uncrating- Import  (Expense)</t>
-  </si>
-  <si>
-    <t>Labor Charges- Import (Expense)</t>
-  </si>
-  <si>
-    <t>Transportation Charges-Import (Expense)</t>
-  </si>
-  <si>
-    <t>Loading / Unloading Charges- Import (Expense)</t>
-  </si>
-  <si>
-    <t>THC- Import (Expense)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D/O Fees - Import (Expense)</t>
-  </si>
-  <si>
-    <t>B/L Fees - Import (Expense)</t>
-  </si>
-  <si>
-    <t>ED Charges - Import (Expense)</t>
-  </si>
-  <si>
-    <t>Transportation of Container - Import(Expense)</t>
-  </si>
-  <si>
-    <t>Token / VGM Charges-Import (Expense)</t>
-  </si>
-  <si>
-    <t>Packing Material- Local (Expense)</t>
-  </si>
-  <si>
-    <t>Labor Charges-Local (Expense)</t>
-  </si>
-  <si>
-    <t>Transportation Charges-Local (Expense)</t>
-  </si>
-  <si>
-    <t>Miscellaneous Charges-Local (Expense)</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Emirates Hill</t>
+  </si>
+  <si>
+    <t>Falcon city of wonders</t>
+  </si>
+  <si>
+    <t>Greens</t>
+  </si>
+  <si>
+    <t>Hatta</t>
+  </si>
+  <si>
+    <t>Hor Al Anz</t>
+  </si>
+  <si>
+    <t>International City</t>
+  </si>
+  <si>
+    <t>JBR</t>
+  </si>
+  <si>
+    <t>Jebel Ali</t>
+  </si>
+  <si>
+    <t>Jebel Ali Palm</t>
+  </si>
+  <si>
+    <t>Jebel Ali Village</t>
+  </si>
+  <si>
+    <t>Jumeira 1</t>
+  </si>
+  <si>
+    <t>Jumeira 2</t>
+  </si>
+  <si>
+    <t>Jumeira 3</t>
+  </si>
+  <si>
+    <t>Jumeirah Golf Estates</t>
+  </si>
+  <si>
+    <t>Jumeirah Heights</t>
+  </si>
+  <si>
+    <t>Jumeirah Islands</t>
+  </si>
+  <si>
+    <t>Jumeirah Lake Towers</t>
+  </si>
+  <si>
+    <t>Jumeirah Park</t>
+  </si>
+  <si>
+    <t>Jumeirah Village Circle</t>
+  </si>
+  <si>
+    <t>Jumeirah Village Triangle</t>
+  </si>
+  <si>
+    <t>Layan Community</t>
+  </si>
+  <si>
+    <t>Legends</t>
+  </si>
+  <si>
+    <t>Liwan</t>
+  </si>
+  <si>
+    <t>Majan</t>
+  </si>
+  <si>
+    <t>Marsa Al Khor</t>
+  </si>
+  <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mira Community</t>
+  </si>
+  <si>
+    <t>Mirdif</t>
+  </si>
+  <si>
+    <t>Motor City</t>
+  </si>
+  <si>
+    <t>Mudon</t>
+  </si>
+  <si>
+    <t>Muhaisanah</t>
+  </si>
+  <si>
+    <t>Nad Al Hammar</t>
+  </si>
+  <si>
+    <t>Nad Shamma</t>
+  </si>
+  <si>
+    <t>Nadd Al Shiba</t>
+  </si>
+  <si>
+    <t>Naif</t>
+  </si>
+  <si>
+    <t>Oud Al Muteena Third</t>
+  </si>
+  <si>
+    <t>Oud Metha</t>
+  </si>
+  <si>
+    <t>Palm Jumeira</t>
+  </si>
+  <si>
+    <t>Port Saeed</t>
+  </si>
+  <si>
+    <t>Ras Al Khor</t>
+  </si>
+  <si>
+    <t>Reemram</t>
+  </si>
+  <si>
+    <t>Rigga Al Buteen</t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t>Sports City</t>
+  </si>
+  <si>
+    <t>Springs</t>
+  </si>
+  <si>
+    <t>Sustainable City</t>
+  </si>
+  <si>
+    <t>The Gardens</t>
+  </si>
+  <si>
+    <t>The Lakes</t>
+  </si>
+  <si>
+    <t>The Villa</t>
+  </si>
+  <si>
+    <t>Trade Centre</t>
+  </si>
+  <si>
+    <t>Umm Al Sheif</t>
+  </si>
+  <si>
+    <t>Umm Hurair</t>
+  </si>
+  <si>
+    <t>Umm Ramool</t>
+  </si>
+  <si>
+    <t>Umm Suqeim 1</t>
+  </si>
+  <si>
+    <t>Umm Suqeim 2</t>
+  </si>
+  <si>
+    <t>Wadi Alamardi</t>
+  </si>
+  <si>
+    <t>Warsan</t>
+  </si>
+  <si>
+    <t>DUBAI</t>
+  </si>
+  <si>
+    <t>DUBAI Production City</t>
   </si>
 </sst>
 </file>
@@ -3247,7 +3444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3286,6 +3483,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8433,6 +8633,392 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>982</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8476,7 +9062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -8551,7 +9137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -8626,7 +9212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -8689,7 +9275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -8717,7 +9303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -8748,7 +9334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -8781,7 +9367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -8819,83 +9405,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11694,28 +12209,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>949</v>
-      </c>
+      <c r="B1" s="15" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11724,6 +12337,543 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A77" sqref="A2:XFD77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -11823,7 +12973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU2"/>
   <sheetViews>
@@ -12285,7 +13435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
@@ -12897,7 +14047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
@@ -12993,390 +14143,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>983</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
+++ b/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
@@ -4,37 +4,38 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Addarticle" sheetId="1" r:id="rId1"/>
-    <sheet name="costingProfile" sheetId="17" r:id="rId2"/>
-    <sheet name="a" sheetId="19" r:id="rId3"/>
-    <sheet name="EditcostingProfile" sheetId="22" r:id="rId4"/>
-    <sheet name="Location" sheetId="23" r:id="rId5"/>
-    <sheet name="PackingMaterial" sheetId="18" r:id="rId6"/>
-    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId7"/>
-    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId8"/>
-    <sheet name="Addroom" sheetId="6" r:id="rId9"/>
-    <sheet name="Incomeadd" sheetId="20" r:id="rId10"/>
-    <sheet name="Expenseadd" sheetId="21" r:id="rId11"/>
-    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId12"/>
-    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId13"/>
-    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId14"/>
-    <sheet name="AccountGroups" sheetId="8" r:id="rId15"/>
-    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId16"/>
-    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId17"/>
-    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId18"/>
-    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId19"/>
-    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId20"/>
-    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId21"/>
+    <sheet name="DirectJoborder" sheetId="24" r:id="rId2"/>
+    <sheet name="costingProfile" sheetId="17" r:id="rId3"/>
+    <sheet name="a" sheetId="19" r:id="rId4"/>
+    <sheet name="EditcostingProfile" sheetId="22" r:id="rId5"/>
+    <sheet name="Location" sheetId="23" r:id="rId6"/>
+    <sheet name="PackingMaterial" sheetId="18" r:id="rId7"/>
+    <sheet name="MasterPrefixhorizontal" sheetId="2" r:id="rId8"/>
+    <sheet name="MasterPrefixvertical" sheetId="5" r:id="rId9"/>
+    <sheet name="Addroom" sheetId="6" r:id="rId10"/>
+    <sheet name="Incomeadd" sheetId="20" r:id="rId11"/>
+    <sheet name="Expenseadd" sheetId="21" r:id="rId12"/>
+    <sheet name="AccountSG_FIXEDASSET" sheetId="9" r:id="rId13"/>
+    <sheet name="AccountSG_CURRENTASSET" sheetId="12" r:id="rId14"/>
+    <sheet name="Enquiry_Individual" sheetId="7" r:id="rId15"/>
+    <sheet name="AccountGroups" sheetId="8" r:id="rId16"/>
+    <sheet name="ACCOUNTSG_DIRECTINCOME" sheetId="10" r:id="rId17"/>
+    <sheet name="ACCOUNTSG_INDIRECTINCOME" sheetId="11" r:id="rId18"/>
+    <sheet name="DIRECT_EXPENSE" sheetId="13" r:id="rId19"/>
+    <sheet name="INDIRECT__EXPENSE" sheetId="14" r:id="rId20"/>
+    <sheet name="CURRENT_LIABILITY" sheetId="15" r:id="rId21"/>
+    <sheet name="CAPITALACCOUNT" sheetId="16" r:id="rId22"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1139">
   <si>
     <t>Article</t>
   </si>
@@ -2700,30 +2701,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>nos12</t>
-  </si>
-  <si>
-    <t>pcs</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>3e</t>
-  </si>
-  <si>
-    <t>ew</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
     <t>Bedroom 5</t>
   </si>
   <si>
@@ -3286,6 +3263,198 @@
   </si>
   <si>
     <t>DUBAI Production City</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>c_code</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Goodstype</t>
+  </si>
+  <si>
+    <t>producttype</t>
+  </si>
+  <si>
+    <t>mr.</t>
+  </si>
+  <si>
+    <t>rwe</t>
+  </si>
+  <si>
+    <t>erw</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>household goods</t>
+  </si>
+  <si>
+    <t>Domestic moving</t>
+  </si>
+  <si>
+    <t>+91</t>
+  </si>
+  <si>
+    <t>originadress</t>
+  </si>
+  <si>
+    <t>destinationaddress</t>
+  </si>
+  <si>
+    <t>cad</t>
+  </si>
+  <si>
+    <t>dad</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>shipment</t>
+  </si>
+  <si>
+    <t>sea Groupage</t>
+  </si>
+  <si>
+    <t>packDate</t>
+  </si>
+  <si>
+    <t>Carton Printed</t>
+  </si>
+  <si>
+    <t>Pcs</t>
+  </si>
+  <si>
+    <t>45x45x45, 3 PLY</t>
+  </si>
+  <si>
+    <t>45x45x70, 5 PLY</t>
+  </si>
+  <si>
+    <t>45x45x70, 3 PLY</t>
+  </si>
+  <si>
+    <t>49x49x49, 3 PLY</t>
+  </si>
+  <si>
+    <t>49x49x70, 3 PLY</t>
+  </si>
+  <si>
+    <t>45x45x45, 5 PLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49x49x49, 5 PLY </t>
+  </si>
+  <si>
+    <t>49x49x70, 5 PLY</t>
+  </si>
+  <si>
+    <t>Carton Normal</t>
+  </si>
+  <si>
+    <t>Bubble Roll</t>
+  </si>
+  <si>
+    <t>Packing Paper</t>
+  </si>
+  <si>
+    <t>Strech Film</t>
+  </si>
+  <si>
+    <t>1.8 x 300 grm</t>
+  </si>
+  <si>
+    <t>Kgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2"x85 yrd </t>
+  </si>
+  <si>
+    <t>Tape Brown</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Flat Sheet</t>
+  </si>
+  <si>
+    <t>120 x 220 cm X 3 PLY</t>
+  </si>
+  <si>
+    <t>120 x 210 cm X 3 PLY</t>
+  </si>
+  <si>
+    <t>120 x 220 cm X 5 PLY</t>
+  </si>
+  <si>
+    <t>120 x 210 cm X 5 PLY</t>
+  </si>
+  <si>
+    <t>Book Box</t>
+  </si>
+  <si>
+    <t>36 ( H) X 30 (w) X 50 ( L) 5 PLY</t>
+  </si>
+  <si>
+    <t>Blanket Roll</t>
+  </si>
+  <si>
+    <t>250 GSM  2x50 mtr</t>
+  </si>
+  <si>
+    <t>Blanket Siiched</t>
+  </si>
+  <si>
+    <t>250 GSM  2x2.5 mtr</t>
+  </si>
+  <si>
+    <t>Hanger Boxes</t>
+  </si>
+  <si>
+    <t>Hanger Boxes ROD</t>
+  </si>
+  <si>
+    <t>Plastic Containers(Boxes)</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -3444,7 +3613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3486,6 +3655,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3794,7 +3966,7 @@
   <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8632,6 +8804,104 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
@@ -8651,172 +8921,172 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -8824,7 +9094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
@@ -8844,172 +9114,172 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -9017,7 +9287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9062,7 +9332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -9137,7 +9407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -9212,7 +9482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9275,7 +9545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -9303,7 +9573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -9334,7 +9604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -9367,7 +9637,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="12.85546875" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F2">
+        <v>41224</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O2" s="27">
+        <v>44047</v>
+      </c>
+      <c r="P2" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9405,7 +9800,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
@@ -9477,2730 +9943,2730 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>923</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>911</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>923</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>919</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>923</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>912</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>923</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>920</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>923</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>923</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C40" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>918</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>923</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>926</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>880</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N46" s="19" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M54" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M56" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N56" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N57" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M58" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N58" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>880</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N59" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N61" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M62" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N62" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>882</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="N63" s="15" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -12209,78 +12675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -12288,7 +12683,7 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="15" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="15" bestFit="1" customWidth="1"/>
@@ -12297,34 +12692,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12336,7 +12731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -12351,22 +12746,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -12374,12 +12769,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A77" sqref="A2:XFD77"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12390,582 +12785,482 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B1" t="s">
-        <v>884</v>
-      </c>
-      <c r="C1" t="s">
-        <v>885</v>
-      </c>
-      <c r="D1" t="s">
-        <v>873</v>
-      </c>
-      <c r="E1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>888</v>
-      </c>
-      <c r="D2" t="s">
-        <v>889</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>890</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>892</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>891</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>893</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>890</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>894</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>1072</v>
       </c>
     </row>
   </sheetData>
@@ -12974,6 +13269,450 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU2"/>
   <sheetViews>
@@ -13435,7 +14174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
@@ -14045,102 +14784,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
+++ b/Enterprse_Suite/src/main/java/com/quickmove/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Addarticle" sheetId="1" r:id="rId1"/>
@@ -3613,7 +3613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3657,7 +3657,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9641,13 +9640,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="12.85546875" style="26" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9746,8 +9745,8 @@
       <c r="N2" t="s">
         <v>1099</v>
       </c>
-      <c r="O2" s="27">
-        <v>44047</v>
+      <c r="O2" s="26">
+        <v>8042020</v>
       </c>
       <c r="P2" t="s">
         <v>893</v>
@@ -13272,7 +13271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
